--- a/data/correlation_between_freight_rate.xlsx
+++ b/data/correlation_between_freight_rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshinoriokubo/Documents/simulator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B6C15-80D2-B547-A734-13378F7B9200}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86C040-C42D-ED4D-B86E-9C8F7074F689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1440" windowWidth="27500" windowHeight="14860" xr2:uid="{E6868074-B924-F54D-8E53-51FBF2B6C40E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>列 1</t>
   </si>
@@ -51,6 +51,81 @@
       <t>フク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>回帰統計</t>
+  </si>
+  <si>
+    <t>重相関 R</t>
+  </si>
+  <si>
+    <t>重決定 R2</t>
+  </si>
+  <si>
+    <t>補正 R2</t>
+  </si>
+  <si>
+    <t>標準誤差</t>
+  </si>
+  <si>
+    <t>観測数</t>
+  </si>
+  <si>
+    <t>分散分析表</t>
+  </si>
+  <si>
+    <t>回帰</t>
+  </si>
+  <si>
+    <t>残差</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>切片</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>変動</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>観測された分散比</t>
+  </si>
+  <si>
+    <t>有意 F</t>
+  </si>
+  <si>
+    <t>係数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t </t>
+  </si>
+  <si>
+    <t>P-値</t>
+  </si>
+  <si>
+    <t>下限 95%</t>
+  </si>
+  <si>
+    <t>上限 95%</t>
+  </si>
+  <si>
+    <t>下限 95.0%</t>
+  </si>
+  <si>
+    <t>上限 95.0%</t>
+  </si>
+  <si>
+    <t>X 値 1</t>
   </si>
 </sst>
 </file>
@@ -116,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +206,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2263,23 +2341,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BE5BCF-ED9E-F94D-B54D-6D5E93FCB0F3}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" thickBot="1">
+    <row r="1" spans="1:21" ht="21" thickBot="1">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="21" thickBot="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2297,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2314,8 +2395,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="21" thickBot="1">
+      <c r="M3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="21" thickBot="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2334,8 +2419,14 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.24472557134884029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2345,8 +2436,14 @@
       <c r="C5">
         <v>740</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.9890605272016326E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2356,8 +2453,14 @@
       <c r="C6">
         <v>670</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="M6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4.6460471061616562E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2367,8 +2470,14 @@
       <c r="C7">
         <v>680</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>159.6769668884215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="21" thickBot="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2378,8 +2487,14 @@
       <c r="C8">
         <v>870</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="M8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2390,7 +2505,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:21" ht="21" thickBot="1">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2400,8 +2515,11 @@
       <c r="C10">
         <v>820</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2411,8 +2529,24 @@
       <c r="C11">
         <v>690</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2422,8 +2556,26 @@
       <c r="C12">
         <v>750</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="M12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>113700.63717197534</v>
+      </c>
+      <c r="P12" s="2">
+        <v>113700.63717197534</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4.4594197149302799</v>
+      </c>
+      <c r="R12" s="2">
+        <v>3.8280324971641411E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2433,8 +2585,22 @@
       <c r="C13">
         <v>820</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="M13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="2">
+        <v>70</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1784771.362828024</v>
+      </c>
+      <c r="P13" s="2">
+        <v>25496.733754686058</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" ht="21" thickBot="1">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2444,8 +2610,20 @@
       <c r="C14">
         <v>730</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="M14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="3">
+        <v>71</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1898471.9999999993</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="21" thickBot="1">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2456,7 +2634,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2466,8 +2644,33 @@
       <c r="C16">
         <v>850</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2477,8 +2680,35 @@
       <c r="C17">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="M17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="2">
+        <v>625.78395681495863</v>
+      </c>
+      <c r="O17" s="2">
+        <v>78.015159290072106</v>
+      </c>
+      <c r="P17" s="2">
+        <v>8.0213123001928341</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1.6689448267431263E-11</v>
+      </c>
+      <c r="R17" s="2">
+        <v>470.18762784609828</v>
+      </c>
+      <c r="S17" s="2">
+        <v>781.38028578381898</v>
+      </c>
+      <c r="T17" s="2">
+        <v>470.18762784609828</v>
+      </c>
+      <c r="U17" s="2">
+        <v>781.38028578381898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="21" thickBot="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2488,8 +2718,35 @@
       <c r="C18">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="M18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.12816249286710057</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6.069064757120373E-2</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2.1117338172530991</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3.8280324971639947E-2</v>
+      </c>
+      <c r="R18" s="3">
+        <v>7.1188130136660976E-3</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.24920617272053505</v>
+      </c>
+      <c r="T18" s="3">
+        <v>7.1188130136660976E-3</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.24920617272053505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2500,7 +2757,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2511,7 +2768,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2522,7 +2779,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2533,7 +2790,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2544,7 +2801,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2555,7 +2812,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2566,7 +2823,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2577,7 +2834,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2588,7 +2845,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2599,7 +2856,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2610,7 +2867,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2621,7 +2878,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2632,7 +2889,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>30</v>
       </c>
